--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H2">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.03509213177141</v>
+        <v>66.996675</v>
       </c>
       <c r="N2">
-        <v>66.03509213177141</v>
+        <v>200.990025</v>
       </c>
       <c r="O2">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="P2">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="Q2">
-        <v>24.28205065235292</v>
+        <v>4.074871766849999</v>
       </c>
       <c r="R2">
-        <v>24.28205065235292</v>
+        <v>36.67384590165</v>
       </c>
       <c r="S2">
-        <v>0.6351345381270634</v>
+        <v>0.08907528351765868</v>
       </c>
       <c r="T2">
-        <v>0.6351345381270634</v>
+        <v>0.08907528351765868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H3">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.115666675693</v>
+        <v>13.59324033333333</v>
       </c>
       <c r="N3">
-        <v>13.115666675693</v>
+        <v>40.779721</v>
       </c>
       <c r="O3">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="P3">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="Q3">
-        <v>4.822818781308657</v>
+        <v>0.8267680635539999</v>
       </c>
       <c r="R3">
-        <v>4.822818781308657</v>
+        <v>7.440912571985999</v>
       </c>
       <c r="S3">
-        <v>0.1261482740066759</v>
+        <v>0.01807286311768964</v>
       </c>
       <c r="T3">
-        <v>0.1261482740066759</v>
+        <v>0.01807286311768964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H4">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.3516280808585</v>
+        <v>12.031188</v>
       </c>
       <c r="N4">
-        <v>11.3516280808585</v>
+        <v>36.093564</v>
       </c>
       <c r="O4">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="P4">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="Q4">
-        <v>4.174156484798165</v>
+        <v>0.731760916536</v>
       </c>
       <c r="R4">
-        <v>4.174156484798165</v>
+        <v>6.585848248824</v>
       </c>
       <c r="S4">
-        <v>0.109181509790874</v>
+        <v>0.01599603983562248</v>
       </c>
       <c r="T4">
-        <v>0.109181509790874</v>
+        <v>0.01599603983562248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H5">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9472683199257</v>
+        <v>12.55587433333333</v>
       </c>
       <c r="N5">
-        <v>11.9472683199257</v>
+        <v>37.667623</v>
       </c>
       <c r="O5">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="P5">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="Q5">
-        <v>4.393181945181381</v>
+        <v>0.763673388702</v>
       </c>
       <c r="R5">
-        <v>4.393181945181381</v>
+        <v>6.873060498317999</v>
       </c>
       <c r="S5">
-        <v>0.1149104589892022</v>
+        <v>0.01669363540882828</v>
       </c>
       <c r="T5">
-        <v>0.1149104589892022</v>
+        <v>0.01669363540882828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06082199999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.182466</v>
+      </c>
+      <c r="I6">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="J6">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.569996</v>
+      </c>
+      <c r="N6">
+        <v>4.709988000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="P6">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="Q6">
+        <v>0.09549029671200002</v>
+      </c>
+      <c r="R6">
+        <v>0.8594126704080001</v>
+      </c>
+      <c r="S6">
+        <v>0.002087384766805071</v>
+      </c>
+      <c r="T6">
+        <v>0.00208738476680507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.103183</v>
+      </c>
+      <c r="I7">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J7">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>66.996675</v>
+      </c>
+      <c r="N7">
+        <v>200.990025</v>
+      </c>
+      <c r="O7">
+        <v>0.6276213057730995</v>
+      </c>
+      <c r="P7">
+        <v>0.6276213057730995</v>
+      </c>
+      <c r="Q7">
+        <v>24.636530972175</v>
+      </c>
+      <c r="R7">
+        <v>221.728778749575</v>
+      </c>
+      <c r="S7">
+        <v>0.5385460222554408</v>
+      </c>
+      <c r="T7">
+        <v>0.5385460222554408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.367714345031861</v>
-      </c>
-      <c r="H6">
-        <v>0.367714345031861</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.52058757921038</v>
-      </c>
-      <c r="N6">
-        <v>1.52058757921038</v>
-      </c>
-      <c r="O6">
-        <v>0.01462521908618448</v>
-      </c>
-      <c r="P6">
-        <v>0.01462521908618448</v>
-      </c>
-      <c r="Q6">
-        <v>0.559141865752928</v>
-      </c>
-      <c r="R6">
-        <v>0.559141865752928</v>
-      </c>
-      <c r="S6">
-        <v>0.01462521908618448</v>
-      </c>
-      <c r="T6">
-        <v>0.01462521908618448</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.103183</v>
+      </c>
+      <c r="I8">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J8">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.59324033333333</v>
+      </c>
+      <c r="N8">
+        <v>40.779721</v>
+      </c>
+      <c r="O8">
+        <v>0.127340756055345</v>
+      </c>
+      <c r="P8">
+        <v>0.127340756055345</v>
+      </c>
+      <c r="Q8">
+        <v>4.998610550215888</v>
+      </c>
+      <c r="R8">
+        <v>44.987494951943</v>
+      </c>
+      <c r="S8">
+        <v>0.1092678929376553</v>
+      </c>
+      <c r="T8">
+        <v>0.1092678929376553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.103183</v>
+      </c>
+      <c r="I9">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J9">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.031188</v>
+      </c>
+      <c r="N9">
+        <v>36.093564</v>
+      </c>
+      <c r="O9">
+        <v>0.1127075324642849</v>
+      </c>
+      <c r="P9">
+        <v>0.1127075324642849</v>
+      </c>
+      <c r="Q9">
+        <v>4.424200690468</v>
+      </c>
+      <c r="R9">
+        <v>39.817806214212</v>
+      </c>
+      <c r="S9">
+        <v>0.09671149262866244</v>
+      </c>
+      <c r="T9">
+        <v>0.09671149262866244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.103183</v>
+      </c>
+      <c r="I10">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J10">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.55587433333333</v>
+      </c>
+      <c r="N10">
+        <v>37.667623</v>
+      </c>
+      <c r="O10">
+        <v>0.1176227662672754</v>
+      </c>
+      <c r="P10">
+        <v>0.1176227662672754</v>
+      </c>
+      <c r="Q10">
+        <v>4.617142371556556</v>
+      </c>
+      <c r="R10">
+        <v>41.554281344009</v>
+      </c>
+      <c r="S10">
+        <v>0.1009291308584471</v>
+      </c>
+      <c r="T10">
+        <v>0.1009291308584471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.103183</v>
+      </c>
+      <c r="I11">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J11">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.569996</v>
+      </c>
+      <c r="N11">
+        <v>4.709988000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="P11">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="Q11">
+        <v>0.5773309657560002</v>
+      </c>
+      <c r="R11">
+        <v>5.195978691804001</v>
+      </c>
+      <c r="S11">
+        <v>0.01262025467319017</v>
+      </c>
+      <c r="T11">
+        <v>0.01262025467319017</v>
       </c>
     </row>
   </sheetData>
